--- a/2des/bcd/aula03/exercicios/normalizados/exercicio3_onibus.xlsx
+++ b/2des/bcd/aula03/exercicios/normalizados/exercicio3_onibus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\normalizados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65795F-BA53-48EE-8344-5ACF0937FB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA5ECA7-C7BA-42D0-978A-C89C768CB9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="telefones" sheetId="3" r:id="rId3"/>
     <sheet name="linhas" sheetId="4" r:id="rId4"/>
     <sheet name="horarios" sheetId="5" r:id="rId5"/>
-    <sheet name="mot_linha" sheetId="7" r:id="rId6"/>
+    <sheet name="mot_linhas" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBDD855-63CA-47BC-AECE-C88E1A7489E6}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">TODAY()-3</f>
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,8 +1175,8 @@
         <v>20</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C11" ca="1" si="0">TODAY()-3</f>
-        <v>44788</v>
+        <f t="shared" ref="C3:C6" ca="1" si="0">TODAY()-3</f>
+        <v>44789</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44788</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/2des/bcd/aula03/exercicios/normalizados/exercicio3_onibus.xlsx
+++ b/2des/bcd/aula03/exercicios/normalizados/exercicio3_onibus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\normalizados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA5ECA7-C7BA-42D0-978A-C89C768CB9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60AE5BD-0929-49AC-89D8-8FF0C3B83426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,6 +179,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +233,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,9 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE58647E-7496-49AA-BE39-A1CE71B642A9}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -823,9 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59900CE4-25AA-4C18-BD0C-AE2BC059CEEF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -891,7 +890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CAA033-3A7C-4031-A43E-982C26F2663F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1133,9 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBDD855-63CA-47BC-AECE-C88E1A7489E6}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1164,7 +1163,7 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">TODAY()-3</f>
-        <v>44789</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1176,7 +1175,7 @@
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C6" ca="1" si="0">TODAY()-3</f>
-        <v>44789</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,7 +1187,7 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44789</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1200,7 +1199,7 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44789</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,7 +1211,7 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44789</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
